--- a/CierreCaja2/formato_arqueo caja2.xlsx
+++ b/CierreCaja2/formato_arqueo caja2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sc22\CierreCaja2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92C4B6F-AC56-4AE7-9B01-2E741FF80EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E852004-7529-45E7-ACD8-3143A0F72921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -88,7 +92,7 @@
     <t>CAJA</t>
   </si>
   <si>
-    <t>RL-INT2</t>
+    <t>RL-REC2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +456,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +499,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -519,7 +523,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -543,7 +547,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -567,7 +571,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -591,7 +595,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -615,7 +619,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -639,7 +643,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -663,7 +667,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>

--- a/CierreCaja2/formato_arqueo caja2.xlsx
+++ b/CierreCaja2/formato_arqueo caja2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sc22\CierreCaja2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E852004-7529-45E7-ACD8-3143A0F72921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3EF11D-3D62-48E4-ADF1-32C2F92CBAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
